--- a/archivos/VAN y TIR.xlsx
+++ b/archivos/VAN y TIR.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>Ingresos Previstos</t>
   </si>
@@ -248,6 +248,9 @@
   <si>
     <t>Debemos tener 40 clientes para alcanzar el punto de equilibrio</t>
   </si>
+  <si>
+    <t>*Todos los numeros expuestos, son solo a modo de ejemplo. Usted deberá ingresar los de su organización.</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +260,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +452,14 @@
       <color rgb="FF262626"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -902,7 +913,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1152,6 +1163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Énfasis2" xfId="8" builtinId="34"/>
@@ -1280,6 +1292,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1427,10 +1440,10 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12061581</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16730000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,6 +1474,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1567,6 +1581,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1714,10 +1729,10 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13776143</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28870550</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,6 +1763,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1854,6 +1870,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2001,10 +2018,10 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>29913243</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51470000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,6 +2052,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2146,6 +2164,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2213,13 +2232,13 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12061581</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13776143</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29913243</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,13 +2280,13 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16730000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28870550</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51470000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,6 +2426,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2513,6 +2533,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3045,6 +3066,633 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001D-4D49-4421-8A77-C7555BF093E5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Distribución de Gastos'!$C$6:$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Honorarios</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Imprenta y Librería</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gastos de Mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Reparaciones y Repuestos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Combustibles y Lubricantes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Luz, Gas, y gastos de comunicación</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Fletes</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gastos Bancarios</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Intereses Perdidos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Impuestos y Gravámenes Diarios</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gastos por Servicios Recibidos</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Inversiones edilicias</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Instalaciones</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Equipos PC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Distribución de Gastos'!$F$6:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{000000B3-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B5-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B6-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B7-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B8-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B9-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BA-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BB-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BC-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BD-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BE-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BF-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C0-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C1-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C2-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C3-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3163,63 +3811,18 @@
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>650000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>450000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37640</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>850000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3230000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4122341</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>950000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{000000B3-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              <c16:uniqueId val="{000000B4-8F5E-47B1-BF19-6A0CFF790CB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:idx val="4"/>
+          <c:order val="2"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -3247,7 +3850,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000B5-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000C5-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3278,7 +3881,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000B6-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000C6-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3309,7 +3912,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000B7-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000C7-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3340,7 +3943,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000B8-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000C8-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3371,7 +3974,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000B9-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000C9-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3402,7 +4005,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000BA-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000CA-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3436,7 +4039,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000BB-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000CB-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3470,7 +4073,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000BC-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000CC-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3504,7 +4107,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000BD-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000CD-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3538,7 +4141,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000BE-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000CE-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3572,7 +4175,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000BF-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000CF-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3606,7 +4209,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C0-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000D0-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3642,7 +4245,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C1-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000D1-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3678,7 +4281,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C2-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000D2-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3714,7 +4317,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C3-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000D3-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3833,63 +4436,18 @@
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>650000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>450000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37640</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>850000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3230000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4122341</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>950000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{000000B4-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              <c16:uniqueId val="{000000C4-8F5E-47B1-BF19-6A0CFF790CB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
+          <c:idx val="5"/>
+          <c:order val="3"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -3917,7 +4475,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C5-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000D5-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3948,7 +4506,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C6-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000D6-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3979,7 +4537,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C7-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000D7-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4010,7 +4568,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C8-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000D8-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4041,7 +4599,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000C9-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000D9-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4072,7 +4630,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000CA-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000DA-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4106,7 +4664,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000CB-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000DB-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4140,7 +4698,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000CC-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000DC-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4174,7 +4732,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000CD-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000DD-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4208,7 +4766,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000CE-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000DE-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4242,7 +4800,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000CF-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000DF-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4276,7 +4834,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D0-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000E0-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4312,7 +4870,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D1-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000E1-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4348,7 +4906,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D2-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000E2-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4384,7 +4942,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D3-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000E3-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4503,63 +5061,18 @@
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>650000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>450000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37640</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>850000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3230000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4122341</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>950000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{000000C4-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              <c16:uniqueId val="{000000D4-8F5E-47B1-BF19-6A0CFF790CB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="4"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -4587,7 +5100,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D5-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000075-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4618,7 +5131,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D6-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000077-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4649,7 +5162,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D7-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000079-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4680,7 +5193,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D8-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{0000007B-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4711,7 +5224,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000D9-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{0000007D-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4742,7 +5255,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000DA-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{0000007F-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4776,7 +5289,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000DB-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000081-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4810,7 +5323,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000DC-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000083-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4844,7 +5357,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000DD-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000085-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4878,7 +5391,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000DE-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000087-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4912,7 +5425,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000DF-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000089-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4946,7 +5459,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000E0-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{0000008B-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4982,7 +5495,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000E1-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{0000008D-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5018,7 +5531,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000E2-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{0000008F-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5054,7 +5567,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000E3-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000091-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5173,63 +5686,18 @@
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>650000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>450000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37640</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>850000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3230000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4122341</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>950000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{000000D4-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+              <c16:uniqueId val="{00000092-8F5E-47B1-BF19-6A0CFF790CB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="4"/>
+          <c:idx val="0"/>
+          <c:order val="5"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -5257,7 +5725,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000075-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000095-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5288,7 +5756,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000077-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000097-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5319,7 +5787,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000079-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{00000099-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5350,7 +5818,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000007B-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{0000009B-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5381,7 +5849,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000007D-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{0000009D-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5412,7 +5880,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000007F-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{0000009F-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5446,7 +5914,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000081-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000A1-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5480,7 +5948,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000083-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000A3-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5514,7 +5982,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000085-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000A5-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5548,7 +6016,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000087-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000A7-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5582,7 +6050,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000089-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000A9-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5616,7 +6084,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000008B-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000AB-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5652,7 +6120,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000008D-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000AD-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5688,7 +6156,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000008F-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000AF-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5724,7 +6192,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000091-8F5E-47B1-BF19-6A0CFF790CB2}"/>
+                <c16:uniqueId val="{000000B1-8F5E-47B1-BF19-6A0CFF790CB2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -5843,721 +6311,6 @@
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>650000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>450000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37640</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>850000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3230000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4122341</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>950000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000092-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="5"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000095-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000097-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000099-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000009B-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000009D-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000009F-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000A1-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000A3-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000A5-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000A7-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000A9-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000AB-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000AD-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000AF-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{000000B1-8F5E-47B1-BF19-6A0CFF790CB2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-AR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Distribución de Gastos'!$C$6:$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>Honorarios</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Imprenta y Librería</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Gastos de Mantenimiento</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reparaciones y Repuestos</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Combustibles y Lubricantes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Luz, Gas, y gastos de comunicación</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fletes</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Gastos Bancarios</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Intereses Perdidos</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Impuestos y Gravámenes Diarios</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Gastos por Servicios Recibidos</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Inversiones edilicias</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Instalaciones</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Equipos PC</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sueldos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Distribución de Gastos'!$F$6:$F$20</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>650000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>450000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37640</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>850000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3230000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4122341</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>950000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>700000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6589,6 +6342,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -7365,51 +7119,6 @@
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1550000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58410</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120233</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1500000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2300000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1250000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3500000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7559,6 +7268,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8147,7 +7857,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -8209,51 +7921,6 @@
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>2780540</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>560000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102320</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>150876</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60560</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29580</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1745648</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6420127</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2469124</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5600000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8285,6 +7952,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -12812,10 +12480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12824,7 +12492,7 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
@@ -12835,575 +12503,580 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="135" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="127">
+      <c r="B3" s="60"/>
+      <c r="C3" s="127">
         <v>30000000</v>
       </c>
-      <c r="D2" s="128"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G3" s="45">
-        <v>2025</v>
-      </c>
-      <c r="H3" s="46">
-        <v>2026</v>
-      </c>
-      <c r="I3" s="47">
-        <v>2027</v>
-      </c>
+      <c r="D3" s="128"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="G4" s="45">
+        <v>2025</v>
+      </c>
+      <c r="H4" s="46">
+        <v>2026</v>
+      </c>
+      <c r="I4" s="47">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44">
-        <f>SUM(G5:G10)</f>
+      <c r="C5" s="15"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44">
+        <f>SUM(G6:G11)</f>
         <v>16730000</v>
       </c>
-      <c r="H4" s="44">
-        <f>SUM(H5:H10)</f>
+      <c r="H5" s="44">
+        <f>SUM(H6:H11)</f>
         <v>28870550</v>
       </c>
-      <c r="I4" s="44">
-        <f>SUM(I5:I10)</f>
+      <c r="I5" s="44">
+        <f>SUM(I6:I11)</f>
         <v>51470000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="11">
-        <v>5000000</v>
-      </c>
-      <c r="H5" s="11">
-        <v>23000000</v>
-      </c>
-      <c r="I5" s="11">
-        <v>39000000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="12">
-        <v>230000</v>
-      </c>
-      <c r="H6" s="12">
-        <v>870550</v>
-      </c>
-      <c r="I6" s="12">
-        <v>670000</v>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="11">
+        <v>5000000</v>
+      </c>
+      <c r="H6" s="11">
+        <v>23000000</v>
+      </c>
+      <c r="I6" s="11">
+        <v>39000000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="12">
-        <v>1500000</v>
+        <v>230000</v>
       </c>
       <c r="H7" s="12">
-        <v>0</v>
+        <v>870550</v>
       </c>
       <c r="I7" s="12">
-        <v>4000000</v>
+        <v>670000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="17" t="s">
-        <v>36</v>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="12">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H8" s="12">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="12">
-        <v>7800000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="G9" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="H9" s="12">
+        <v>5000000</v>
+      </c>
+      <c r="I9" s="12">
+        <v>7800000</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41">
-        <f>SUM(G12:G26)</f>
+      <c r="C12" s="14"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41">
+        <f>SUM(G13:G27)</f>
         <v>11346581</v>
       </c>
-      <c r="H11" s="41">
-        <f>SUM(H12:H26)</f>
+      <c r="H12" s="41">
+        <f>SUM(H13:H27)</f>
         <v>12208143</v>
       </c>
-      <c r="I11" s="41">
-        <f>SUM(I12:I26)</f>
+      <c r="I12" s="41">
+        <f>SUM(I13:I27)</f>
         <v>28191775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="11">
-        <v>650000</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1550000</v>
-      </c>
-      <c r="I12" s="11">
-        <v>2780540</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="12">
-        <v>150000</v>
-      </c>
-      <c r="H13" s="12">
-        <v>70000</v>
-      </c>
-      <c r="I13" s="12">
-        <v>95000</v>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="11">
+        <v>650000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1550000</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2780540</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="12">
-        <v>450000</v>
+        <v>150000</v>
       </c>
       <c r="H14" s="12">
-        <v>600000</v>
+        <v>70000</v>
       </c>
       <c r="I14" s="12">
-        <v>560000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="12">
-        <v>45000</v>
+        <v>450000</v>
       </c>
       <c r="H15" s="12">
-        <v>50000</v>
+        <v>600000</v>
       </c>
       <c r="I15" s="12">
-        <v>102320</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="12">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="H16" s="12">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I16" s="12">
-        <v>80000</v>
+        <v>102320</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="12">
-        <v>55600</v>
+        <v>30000</v>
       </c>
       <c r="H17" s="12">
-        <v>59000</v>
+        <v>45000</v>
       </c>
       <c r="I17" s="12">
-        <v>63000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="12">
-        <v>40000</v>
+        <v>55600</v>
       </c>
       <c r="H18" s="12">
-        <v>15500</v>
+        <v>59000</v>
       </c>
       <c r="I18" s="12">
-        <v>150876</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="12">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="H19" s="12">
-        <v>40000</v>
+        <v>15500</v>
       </c>
       <c r="I19" s="12">
-        <v>60560</v>
+        <v>150876</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="12">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="H20" s="12">
-        <v>58410</v>
+        <v>40000</v>
       </c>
       <c r="I20" s="12">
-        <v>29580</v>
+        <v>60560</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="12">
-        <v>37640</v>
+        <v>24000</v>
       </c>
       <c r="H21" s="12">
-        <v>50000</v>
+        <v>58410</v>
       </c>
       <c r="I21" s="12">
-        <v>35000</v>
+        <v>29580</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="12">
-        <v>850000</v>
+        <v>37640</v>
       </c>
       <c r="H22" s="12">
-        <v>1120233</v>
+        <v>50000</v>
       </c>
       <c r="I22" s="12">
-        <v>1745648</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="17" t="s">
-        <v>23</v>
+      <c r="C23" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="12">
-        <v>3230000</v>
+        <v>850000</v>
       </c>
       <c r="H23" s="12">
-        <v>1500000</v>
+        <v>1120233</v>
       </c>
       <c r="I23" s="12">
-        <v>8000000</v>
+        <v>1745648</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="12">
-        <v>4122341</v>
+        <v>3230000</v>
       </c>
       <c r="H24" s="12">
-        <v>2300000</v>
+        <v>1500000</v>
       </c>
       <c r="I24" s="12">
-        <v>6420127</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="12">
-        <v>950000</v>
+        <v>4122341</v>
       </c>
       <c r="H25" s="12">
-        <v>1250000</v>
+        <v>2300000</v>
       </c>
       <c r="I25" s="12">
-        <v>2469124</v>
+        <v>6420127</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="12">
+        <v>950000</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1250000</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2469124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="13">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="13">
         <v>700000</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>3500000</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>5600000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38">
-        <f>G4-G11</f>
-        <v>5383419</v>
-      </c>
-      <c r="H27" s="19">
-        <f>H4-H11</f>
-        <v>16662407</v>
-      </c>
-      <c r="I27" s="19">
-        <f>I4-I11</f>
-        <v>23278225</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24">
-        <v>155000</v>
-      </c>
-      <c r="H28" s="24">
-        <v>274000</v>
-      </c>
-      <c r="I28" s="24">
-        <v>368952</v>
+      <c r="B28" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38">
+        <f>G5-G12</f>
+        <v>5383419</v>
+      </c>
+      <c r="H28" s="19">
+        <f>H5-H12</f>
+        <v>16662407</v>
+      </c>
+      <c r="I28" s="19">
+        <f>I5-I12</f>
+        <v>23278225</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="28">
-        <f>G27-G28</f>
-        <v>5228419</v>
-      </c>
-      <c r="H29" s="48">
-        <f>H27-H28</f>
-        <v>16388407</v>
-      </c>
-      <c r="I29" s="48">
-        <f>I27-I28</f>
-        <v>22909273</v>
+      <c r="B29" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24">
+        <v>155000</v>
+      </c>
+      <c r="H29" s="24">
+        <v>274000</v>
+      </c>
+      <c r="I29" s="24">
+        <v>368952</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24">
-        <v>210000</v>
-      </c>
-      <c r="H30" s="24">
-        <v>554000</v>
-      </c>
-      <c r="I30" s="24">
-        <v>365000</v>
+      <c r="B30" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="28">
+        <f>G28-G29</f>
+        <v>5228419</v>
+      </c>
+      <c r="H30" s="48">
+        <f>H28-H29</f>
+        <v>16388407</v>
+      </c>
+      <c r="I30" s="48">
+        <f>I28-I29</f>
+        <v>22909273</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="28">
-        <f>G29-G30</f>
-        <v>5018419</v>
-      </c>
-      <c r="H31" s="48">
-        <f>H29-H30</f>
-        <v>15834407</v>
-      </c>
-      <c r="I31" s="48">
-        <f>I29-I30</f>
-        <v>22544273</v>
+      <c r="B31" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24">
+        <v>210000</v>
+      </c>
+      <c r="H31" s="24">
+        <v>554000</v>
+      </c>
+      <c r="I31" s="24">
+        <v>365000</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24">
-        <v>350000</v>
-      </c>
-      <c r="H32" s="24">
-        <v>740000</v>
-      </c>
-      <c r="I32" s="24">
-        <v>987516</v>
+      <c r="B32" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="28">
+        <f>G30-G31</f>
+        <v>5018419</v>
+      </c>
+      <c r="H32" s="48">
+        <f>H30-H31</f>
+        <v>15834407</v>
+      </c>
+      <c r="I32" s="48">
+        <f>I30-I31</f>
+        <v>22544273</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24">
+        <v>350000</v>
+      </c>
+      <c r="H33" s="24">
+        <v>740000</v>
+      </c>
+      <c r="I33" s="24">
+        <v>987516</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28">
-        <f>G31-G32</f>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28">
+        <f>G32-G33</f>
         <v>4668419</v>
       </c>
-      <c r="H33" s="48">
-        <f>H31-H32</f>
+      <c r="H34" s="48">
+        <f>H32-H33</f>
         <v>15094407</v>
       </c>
-      <c r="I33" s="48">
-        <f>I31-I32</f>
+      <c r="I34" s="48">
+        <f>I32-I33</f>
         <v>21556757</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13412,7 +13085,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13437,7 +13110,7 @@
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="130">
-        <f>'Cuenta de Resultados Previstos'!C2:D2</f>
+        <f>'Cuenta de Resultados Previstos'!C3:D3</f>
         <v>30000000</v>
       </c>
       <c r="D3" s="130"/>
@@ -13478,21 +13151,21 @@
         <v>2025</v>
       </c>
       <c r="B6" s="69">
-        <f>'Cuenta de Resultados Previstos'!G11+'Cuenta de Resultados Previstos'!G28+'Cuenta de Resultados Previstos'!G30+'Cuenta de Resultados Previstos'!G32</f>
+        <f>'Cuenta de Resultados Previstos'!G12+'Cuenta de Resultados Previstos'!G29+'Cuenta de Resultados Previstos'!G31+'Cuenta de Resultados Previstos'!G33</f>
         <v>12061581</v>
       </c>
       <c r="D6" s="68">
         <v>2025</v>
       </c>
       <c r="E6" s="69">
-        <f>'Cuenta de Resultados Previstos'!G4</f>
+        <f>'Cuenta de Resultados Previstos'!G5</f>
         <v>16730000</v>
       </c>
       <c r="G6" s="68">
         <v>2025</v>
       </c>
       <c r="H6" s="69">
-        <f>'Cuenta de Resultados Previstos'!I11+'Cuenta de Resultados Previstos'!I28+'Cuenta de Resultados Previstos'!I30+'Cuenta de Resultados Previstos'!I32</f>
+        <f>'Cuenta de Resultados Previstos'!I12+'Cuenta de Resultados Previstos'!I29+'Cuenta de Resultados Previstos'!I31+'Cuenta de Resultados Previstos'!I33</f>
         <v>29913243</v>
       </c>
     </row>
@@ -13501,14 +13174,14 @@
         <v>2026</v>
       </c>
       <c r="B7" s="69">
-        <f>'Cuenta de Resultados Previstos'!H11+'Cuenta de Resultados Previstos'!H28+'Cuenta de Resultados Previstos'!H30+'Cuenta de Resultados Previstos'!H32</f>
+        <f>'Cuenta de Resultados Previstos'!H12+'Cuenta de Resultados Previstos'!H29+'Cuenta de Resultados Previstos'!H31+'Cuenta de Resultados Previstos'!H33</f>
         <v>13776143</v>
       </c>
       <c r="D7" s="70">
         <v>2026</v>
       </c>
       <c r="E7" s="69">
-        <f>'Cuenta de Resultados Previstos'!H4</f>
+        <f>'Cuenta de Resultados Previstos'!H5</f>
         <v>28870550</v>
       </c>
       <c r="G7" s="70">
@@ -13524,14 +13197,14 @@
         <v>2027</v>
       </c>
       <c r="B8" s="69">
-        <f>'Cuenta de Resultados Previstos'!I11+'Cuenta de Resultados Previstos'!I28+'Cuenta de Resultados Previstos'!I30+'Cuenta de Resultados Previstos'!I32</f>
+        <f>'Cuenta de Resultados Previstos'!I12+'Cuenta de Resultados Previstos'!I29+'Cuenta de Resultados Previstos'!I31+'Cuenta de Resultados Previstos'!I33</f>
         <v>29913243</v>
       </c>
       <c r="D8" s="70">
         <v>2027</v>
       </c>
       <c r="E8" s="69">
-        <f>'Cuenta de Resultados Previstos'!I4</f>
+        <f>'Cuenta de Resultados Previstos'!I5</f>
         <v>51470000</v>
       </c>
       <c r="G8" s="70">
@@ -13578,7 +13251,7 @@
         <v>2025</v>
       </c>
       <c r="B13" s="7">
-        <f>'Cuenta de Resultados Previstos'!G33</f>
+        <f>'Cuenta de Resultados Previstos'!G34</f>
         <v>4668419</v>
       </c>
       <c r="D13" s="129" t="s">
@@ -13594,7 +13267,7 @@
         <v>2026</v>
       </c>
       <c r="B14" s="7">
-        <f>'Cuenta de Resultados Previstos'!H33</f>
+        <f>'Cuenta de Resultados Previstos'!H34</f>
         <v>15094407</v>
       </c>
       <c r="D14" s="129"/>
@@ -13608,7 +13281,7 @@
         <v>2027</v>
       </c>
       <c r="B15" s="10">
-        <f>'Cuenta de Resultados Previstos'!I33</f>
+        <f>'Cuenta de Resultados Previstos'!I34</f>
         <v>21556757</v>
       </c>
     </row>
@@ -13683,7 +13356,7 @@
   <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F21" activeCellId="1" sqref="F7:F19 F21:F23"/>
+      <selection activeCell="H23" sqref="F2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13713,15 +13386,9 @@
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
-      <c r="F2" s="11">
-        <v>5000000</v>
-      </c>
-      <c r="G2" s="11">
-        <v>23000000</v>
-      </c>
-      <c r="H2" s="11">
-        <v>39000000</v>
-      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="74" t="s">
@@ -13732,15 +13399,9 @@
       </c>
       <c r="D3" s="78"/>
       <c r="E3" s="78"/>
-      <c r="F3" s="12">
-        <v>230000</v>
-      </c>
-      <c r="G3" s="12">
-        <v>870550</v>
-      </c>
-      <c r="H3" s="12">
-        <v>670000</v>
-      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="74" t="s">
@@ -13751,15 +13412,9 @@
       </c>
       <c r="D4" s="78"/>
       <c r="E4" s="78"/>
-      <c r="F4" s="12">
-        <v>1500000</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>4000000</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="74" t="s">
@@ -13770,15 +13425,9 @@
       </c>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="F5" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="G5" s="12">
-        <v>5000000</v>
-      </c>
-      <c r="H5" s="12">
-        <v>7800000</v>
-      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="79" t="s">
@@ -13789,15 +13438,9 @@
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
-      <c r="F6" s="11">
-        <v>650000</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1550000</v>
-      </c>
-      <c r="H6" s="11">
-        <v>2780540</v>
-      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="79" t="s">
@@ -13808,15 +13451,9 @@
       </c>
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
-      <c r="F7" s="12">
-        <v>150000</v>
-      </c>
-      <c r="G7" s="12">
-        <v>70000</v>
-      </c>
-      <c r="H7" s="12">
-        <v>95000</v>
-      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="79" t="s">
@@ -13827,15 +13464,9 @@
       </c>
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
-      <c r="F8" s="12">
-        <v>450000</v>
-      </c>
-      <c r="G8" s="12">
-        <v>600000</v>
-      </c>
-      <c r="H8" s="12">
-        <v>560000</v>
-      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="79" t="s">
@@ -13846,15 +13477,9 @@
       </c>
       <c r="D9" s="83"/>
       <c r="E9" s="83"/>
-      <c r="F9" s="12">
-        <v>45000</v>
-      </c>
-      <c r="G9" s="12">
-        <v>50000</v>
-      </c>
-      <c r="H9" s="12">
-        <v>102320</v>
-      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="79" t="s">
@@ -13865,15 +13490,9 @@
       </c>
       <c r="D10" s="83"/>
       <c r="E10" s="83"/>
-      <c r="F10" s="12">
-        <v>30000</v>
-      </c>
-      <c r="G10" s="12">
-        <v>45000</v>
-      </c>
-      <c r="H10" s="12">
-        <v>80000</v>
-      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="79" t="s">
@@ -13884,15 +13503,9 @@
       </c>
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
-      <c r="F11" s="12">
-        <v>55600</v>
-      </c>
-      <c r="G11" s="12">
-        <v>59000</v>
-      </c>
-      <c r="H11" s="12">
-        <v>63000</v>
-      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="79" t="s">
@@ -13903,15 +13516,9 @@
       </c>
       <c r="D12" s="83"/>
       <c r="E12" s="83"/>
-      <c r="F12" s="12">
-        <v>40000</v>
-      </c>
-      <c r="G12" s="12">
-        <v>15500</v>
-      </c>
-      <c r="H12" s="12">
-        <v>150876</v>
-      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="79" t="s">
@@ -13922,15 +13529,9 @@
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="83"/>
-      <c r="F13" s="12">
-        <v>12000</v>
-      </c>
-      <c r="G13" s="12">
-        <v>40000</v>
-      </c>
-      <c r="H13" s="12">
-        <v>60560</v>
-      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="79" t="s">
@@ -13941,15 +13542,9 @@
       </c>
       <c r="D14" s="83"/>
       <c r="E14" s="83"/>
-      <c r="F14" s="12">
-        <v>24000</v>
-      </c>
-      <c r="G14" s="12">
-        <v>58410</v>
-      </c>
-      <c r="H14" s="12">
-        <v>29580</v>
-      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="79" t="s">
@@ -13960,15 +13555,9 @@
       </c>
       <c r="D15" s="83"/>
       <c r="E15" s="83"/>
-      <c r="F15" s="12">
-        <v>37640</v>
-      </c>
-      <c r="G15" s="12">
-        <v>50000</v>
-      </c>
-      <c r="H15" s="12">
-        <v>35000</v>
-      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="79" t="s">
@@ -13979,15 +13568,9 @@
       </c>
       <c r="D16" s="83"/>
       <c r="E16" s="83"/>
-      <c r="F16" s="12">
-        <v>850000</v>
-      </c>
-      <c r="G16" s="12">
-        <v>1120233</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1745648</v>
-      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="79" t="s">
@@ -13998,15 +13581,9 @@
       </c>
       <c r="D17" s="83"/>
       <c r="E17" s="83"/>
-      <c r="F17" s="12">
-        <v>3230000</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1500000</v>
-      </c>
-      <c r="H17" s="12">
-        <v>8000000</v>
-      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="79" t="s">
@@ -14017,15 +13594,9 @@
       </c>
       <c r="D18" s="83"/>
       <c r="E18" s="83"/>
-      <c r="F18" s="12">
-        <v>4122341</v>
-      </c>
-      <c r="G18" s="12">
-        <v>2300000</v>
-      </c>
-      <c r="H18" s="12">
-        <v>6420127</v>
-      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="79" t="s">
@@ -14036,15 +13607,9 @@
       </c>
       <c r="D19" s="83"/>
       <c r="E19" s="83"/>
-      <c r="F19" s="12">
-        <v>950000</v>
-      </c>
-      <c r="G19" s="12">
-        <v>1250000</v>
-      </c>
-      <c r="H19" s="12">
-        <v>2469124</v>
-      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="79" t="s">
@@ -14055,15 +13620,9 @@
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
-      <c r="F20" s="13">
-        <v>700000</v>
-      </c>
-      <c r="G20" s="13">
-        <v>3500000</v>
-      </c>
-      <c r="H20" s="13">
-        <v>5600000</v>
-      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="79" t="s">
@@ -14074,15 +13633,9 @@
       </c>
       <c r="D21" s="86"/>
       <c r="E21" s="87"/>
-      <c r="F21" s="24">
-        <v>155000</v>
-      </c>
-      <c r="G21" s="24">
-        <v>274000</v>
-      </c>
-      <c r="H21" s="24">
-        <v>368952</v>
-      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="79" t="s">
@@ -14093,15 +13646,9 @@
       </c>
       <c r="D22" s="86"/>
       <c r="E22" s="87"/>
-      <c r="F22" s="24">
-        <v>210000</v>
-      </c>
-      <c r="G22" s="24">
-        <v>554000</v>
-      </c>
-      <c r="H22" s="24">
-        <v>365000</v>
-      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="79" t="s">
@@ -14112,15 +13659,9 @@
       </c>
       <c r="D23" s="86"/>
       <c r="E23" s="87"/>
-      <c r="F23" s="24">
-        <v>350000</v>
-      </c>
-      <c r="G23" s="24">
-        <v>740000</v>
-      </c>
-      <c r="H23" s="24">
-        <v>987516</v>
-      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E25" s="88" t="s">
@@ -14128,15 +13669,15 @@
       </c>
       <c r="F25" s="89">
         <f>SUM(F6:F23)</f>
-        <v>12061581</v>
+        <v>0</v>
       </c>
       <c r="G25" s="89">
         <f t="shared" ref="G25:H25" si="0">SUM(G6:G23)</f>
-        <v>13776143</v>
+        <v>0</v>
       </c>
       <c r="H25" s="89">
         <f t="shared" si="0"/>
-        <v>29913243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -14145,15 +13686,15 @@
       </c>
       <c r="F26" s="89">
         <f>SUM(F2:F5)</f>
-        <v>16730000</v>
+        <v>0</v>
       </c>
       <c r="G26" s="89">
         <f t="shared" ref="G26:H26" si="1">SUM(G2:G5)</f>
-        <v>28870550</v>
+        <v>0</v>
       </c>
       <c r="H26" s="89">
         <f t="shared" si="1"/>
-        <v>51470000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14166,7 +13707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>

--- a/archivos/VAN y TIR.xlsx
+++ b/archivos/VAN y TIR.xlsx
@@ -1139,6 +1139,7 @@
     <xf numFmtId="2" fontId="7" fillId="19" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="19" fillId="13" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1163,7 +1164,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Énfasis2" xfId="8" builtinId="34"/>
@@ -3122,9 +3122,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -7857,9 +7855,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -12483,7 +12479,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12504,7 +12500,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="127" t="s">
         <v>75</v>
       </c>
     </row>
@@ -12513,10 +12509,10 @@
         <v>35</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="127">
+      <c r="C3" s="128">
         <v>30000000</v>
       </c>
-      <c r="D3" s="128"/>
+      <c r="D3" s="129"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G4" s="45">
@@ -13084,8 +13080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13109,11 +13105,11 @@
         <v>35</v>
       </c>
       <c r="B3" s="64"/>
-      <c r="C3" s="130">
+      <c r="C3" s="131">
         <f>'Cuenta de Resultados Previstos'!C3:D3</f>
         <v>30000000</v>
       </c>
-      <c r="D3" s="130"/>
+      <c r="D3" s="131"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
@@ -13254,13 +13250,13 @@
         <f>'Cuenta de Resultados Previstos'!G34</f>
         <v>4668419</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
@@ -13270,11 +13266,11 @@
         <f>'Cuenta de Resultados Previstos'!H34</f>
         <v>15094407</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
@@ -13753,22 +13749,22 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
@@ -13785,11 +13781,11 @@
       <c r="C10" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="107">
@@ -13802,17 +13798,17 @@
         <f>A11/B11</f>
         <v>53.333333333333336</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
     </row>
     <row r="12" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="113"/>
       <c r="B12" s="114"/>
       <c r="C12" s="114"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="113"/>
@@ -13827,14 +13823,14 @@
       <c r="C14" s="114"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
